--- a/mm/Алимбеков дкип-481 лр6.xlsx
+++ b/mm/Алимбеков дкип-481 лр6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Labs\mm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erzat\Desktop\Labs\mm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A56D8FF-D047-42AC-ADD2-F045064C8B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F32DBE-EAF1-42A2-A381-CC97DF4F3014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="12960" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -63,8 +63,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -72,12 +70,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+  <si>
+    <t>Пунткы потребления</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>ответ:</t>
+  </si>
+  <si>
+    <t>Пункты поставки</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +117,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -102,12 +146,158 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -388,14 +578,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>24</v>
+      </c>
+      <c r="C3" s="10">
+        <v>50</v>
+      </c>
+      <c r="D3" s="10">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10">
+        <v>27</v>
+      </c>
+      <c r="F3" s="11">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>200</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>O3-I3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5">
+        <v>17</v>
+      </c>
+      <c r="F4" s="13">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>70</v>
+      </c>
+      <c r="J4" s="6">
+        <v>130</v>
+      </c>
+      <c r="K4" s="6">
+        <v>150</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4">
+        <v>59</v>
+      </c>
+      <c r="D5" s="4">
+        <v>55</v>
+      </c>
+      <c r="E5" s="4">
+        <v>27</v>
+      </c>
+      <c r="F5" s="15">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>40</v>
+      </c>
+      <c r="L5" s="6">
+        <v>150</v>
+      </c>
+      <c r="M5" s="6">
+        <v>110</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f>I4-70</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>J7-J4</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I7" s="3">
+        <v>270</v>
+      </c>
+      <c r="J7" s="3">
+        <v>130</v>
+      </c>
+      <c r="K7" s="3">
+        <v>190</v>
+      </c>
+      <c r="L7" s="3">
+        <v>150</v>
+      </c>
+      <c r="M7" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8">
+        <f>SUMPRODUCT(B3:F5,I3:M5)</f>
+        <v>28620</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>